--- a/Assignment 02.xlsx
+++ b/Assignment 02.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\4817\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EA6A9CD-75C0-439A-87FE-4D530B7DF5C3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D293F81-DA8F-4149-AD23-E110B86CDE1F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{1CC9D158-8829-4A3C-A0D0-78D091FD38E6}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="110">
   <si>
     <t>ID</t>
   </si>
@@ -331,6 +331,30 @@
   </si>
   <si>
     <t>The "double blue tick" appears after reading the received message.</t>
+  </si>
+  <si>
+    <t>QA12</t>
+  </si>
+  <si>
+    <t>Read Receipts</t>
+  </si>
+  <si>
+    <t>Verifying the read receipts</t>
+  </si>
+  <si>
+    <t>The user asks the contact to send a message to him/her.</t>
+  </si>
+  <si>
+    <t>The user waits for the message to arrive and verify that it is displayed in the chat with a received timestamp</t>
+  </si>
+  <si>
+    <t>The message get received by the user.</t>
+  </si>
+  <si>
+    <t>The message gets read by the user.</t>
+  </si>
+  <si>
+    <t>The user taps on the received message to open and read it.</t>
   </si>
 </sst>
 </file>
@@ -675,7 +699,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -810,6 +834,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1125,10 +1152,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F0EAE26-8F27-413E-AD9E-C7F65F6ECD9C}">
-  <dimension ref="C2:E147"/>
+  <dimension ref="C2:E159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="D137" sqref="D137"/>
+    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="D162" sqref="D162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2336,14 +2363,116 @@
         <v>9</v>
       </c>
     </row>
-    <row r="147" spans="3:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C147" s="36">
+    <row r="147" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C147" s="35">
         <v>1</v>
       </c>
-      <c r="D147" s="47" t="s">
+      <c r="D147" s="49" t="s">
+        <v>105</v>
+      </c>
+      <c r="E147" s="26" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="148" spans="3:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="C148" s="35">
+        <v>2</v>
+      </c>
+      <c r="D148" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="E148" s="26"/>
+    </row>
+    <row r="149" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C149" s="35">
+        <v>3</v>
+      </c>
+      <c r="D149" s="49" t="s">
+        <v>109</v>
+      </c>
+      <c r="E149" s="26" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="150" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C150" s="39"/>
+      <c r="D150" s="39"/>
+      <c r="E150" s="39"/>
+    </row>
+    <row r="151" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C151" s="39"/>
+      <c r="D151" s="39"/>
+      <c r="E151" s="39"/>
+    </row>
+    <row r="152" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C152" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D152" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="E152" s="6"/>
+    </row>
+    <row r="153" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C153" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E153" s="8"/>
+    </row>
+    <row r="154" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C154" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E154" s="8"/>
+    </row>
+    <row r="155" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C155" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E155" s="8"/>
+    </row>
+    <row r="156" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C156" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E156" s="8"/>
+    </row>
+    <row r="157" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C157" s="9"/>
+      <c r="D157" s="4"/>
+      <c r="E157" s="8"/>
+    </row>
+    <row r="158" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C158" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D158" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="E158" s="40" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="159" spans="3:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C159" s="36">
+        <v>1</v>
+      </c>
+      <c r="D159" s="47" t="s">
         <v>100</v>
       </c>
-      <c r="E147" s="48" t="s">
+      <c r="E159" s="48" t="s">
         <v>101</v>
       </c>
     </row>
